--- a/Encode_Decode/draw/data/yaw0_pitch20_roll10_SRC.xlsx
+++ b/Encode_Decode/draw/data/yaw0_pitch20_roll10_SRC.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\OOC\LEDs_Data_Processing\Encode_Decode\draw\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF3A0D-C9DB-47CE-94CB-ADF2879A525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4A7E11-E3EB-4318-A5CE-B6043A498B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{B559F6A5-76B3-4142-A162-2FB5B3151F1D}"/>
   </bookViews>
   <sheets>
     <sheet name="yaw0pitch20roll10" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">yaw0pitch20roll10!$J$1:$J$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -115,10 +118,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,10 +460,14 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="12.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -499,167 +506,167 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>-70</v>
+        <v>-40</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>135</v>
       </c>
       <c r="D2" s="2">
-        <v>-72.98</v>
+        <v>-44.4</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.28000000000000003</v>
+        <v>43.06</v>
       </c>
       <c r="F2" s="2">
-        <v>140.19999999999999</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:I19" si="0">D2-A2</f>
-        <v>-2.980000000000004</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>5.1999999999999886</v>
-      </c>
-      <c r="J2">
+        <v>133.16999999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <f>D2-A2</f>
+        <v>-4.3999999999999986</v>
+      </c>
+      <c r="H2" s="2">
+        <f>E2-B2</f>
+        <v>3.0600000000000023</v>
+      </c>
+      <c r="I2" s="2">
+        <f>F2-C2</f>
+        <v>-1.8300000000000125</v>
+      </c>
+      <c r="J2" s="2">
         <f>SQRT(G2*G2+H2*H2)</f>
-        <v>2.993125456775914</v>
-      </c>
-      <c r="K2">
+        <v>5.3594402692818592</v>
+      </c>
+      <c r="K2" s="2">
         <f>SQRT(G2*G2+H2*H2+I2*I2)</f>
-        <v>5.9998999991666446</v>
+        <v>5.663258779183594</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>-50</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="C3" s="2">
         <v>135</v>
       </c>
       <c r="D3" s="2">
-        <v>-51.92</v>
+        <v>16.87</v>
       </c>
       <c r="E3" s="2">
-        <v>-2.5</v>
+        <v>-25.9</v>
       </c>
       <c r="F3" s="2">
-        <v>134.31</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>-1.9200000000000017</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>-0.68999999999999773</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J19" si="1">SQRT(G3*G3+H3*H3)</f>
-        <v>3.1522055770523605</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K19" si="2">SQRT(G3*G3+H3*H3+I3*I3)</f>
-        <v>3.2268405600525112</v>
+        <v>148.33000000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3-A3</f>
+        <v>-3.129999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <f>E3-B3</f>
+        <v>-5.8999999999999986</v>
+      </c>
+      <c r="I3" s="2">
+        <f>F3-C3</f>
+        <v>13.330000000000013</v>
+      </c>
+      <c r="J3" s="2">
+        <f>SQRT(G3*G3+H3*H3)</f>
+        <v>6.6788397195920171</v>
+      </c>
+      <c r="K3" s="2">
+        <f>SQRT(G3*G3+H3*H3+I3*I3)</f>
+        <v>14.909587519445342</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>-40</v>
+        <v>-70</v>
       </c>
       <c r="B4" s="2">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>135</v>
       </c>
       <c r="D4" s="2">
-        <v>-36.08</v>
+        <v>-72.98</v>
       </c>
       <c r="E4" s="2">
-        <v>-39.61</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="F4" s="2">
-        <v>148.66999999999999</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>3.9200000000000017</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0.39000000000000057</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>13.669999999999987</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>3.9393527387122891</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>14.226292559904694</v>
+        <v>140.19999999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <f>D4-A4</f>
+        <v>-2.980000000000004</v>
+      </c>
+      <c r="H4" s="2">
+        <f>E4-B4</f>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I4" s="2">
+        <f>F4-C4</f>
+        <v>5.1999999999999886</v>
+      </c>
+      <c r="J4" s="2">
+        <f>SQRT(G4*G4+H4*H4)</f>
+        <v>2.993125456775914</v>
+      </c>
+      <c r="K4" s="2">
+        <f>SQRT(G4*G4+H4*H4+I4*I4)</f>
+        <v>5.9998999991666446</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>40</v>
+        <v>-30</v>
       </c>
       <c r="C5" s="2">
         <v>135</v>
       </c>
       <c r="D5" s="2">
-        <v>-44.4</v>
+        <v>-2.86</v>
       </c>
       <c r="E5" s="2">
-        <v>43.06</v>
+        <v>-31.64</v>
       </c>
       <c r="F5" s="2">
-        <v>133.16999999999999</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-4.3999999999999986</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>3.0600000000000023</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>-1.8300000000000125</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>5.3594402692818592</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>5.663258779183594</v>
+        <v>150.44</v>
+      </c>
+      <c r="G5" s="2">
+        <f>D5-A5</f>
+        <v>-2.86</v>
+      </c>
+      <c r="H5" s="2">
+        <f>E5-B5</f>
+        <v>-1.6400000000000006</v>
+      </c>
+      <c r="I5" s="2">
+        <f>F5-C5</f>
+        <v>15.439999999999998</v>
+      </c>
+      <c r="J5" s="2">
+        <f>SQRT(G5*G5+H5*H5)</f>
+        <v>3.2968469785539032</v>
+      </c>
+      <c r="K5" s="2">
+        <f>SQRT(G5*G5+H5*H5+I5*I5)</f>
+        <v>15.788058778709939</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -668,113 +675,113 @@
         <v>135</v>
       </c>
       <c r="D6" s="2">
-        <v>-29.47</v>
+        <v>-51.92</v>
       </c>
       <c r="E6" s="2">
-        <v>-3.96</v>
+        <v>-2.5</v>
       </c>
       <c r="F6" s="2">
-        <v>142.25</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.53000000000000114</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>-3.96</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>7.25</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>3.9953097501945956</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>8.2779828460803184</v>
+        <v>134.31</v>
+      </c>
+      <c r="G6" s="2">
+        <f>D6-A6</f>
+        <v>-1.9200000000000017</v>
+      </c>
+      <c r="H6" s="2">
+        <f>E6-B6</f>
+        <v>-2.5</v>
+      </c>
+      <c r="I6" s="2">
+        <f>F6-C6</f>
+        <v>-0.68999999999999773</v>
+      </c>
+      <c r="J6" s="2">
+        <f>SQRT(G6*G6+H6*H6)</f>
+        <v>3.1522055770523605</v>
+      </c>
+      <c r="K6" s="2">
+        <f>SQRT(G6*G6+H6*H6+I6*I6)</f>
+        <v>3.2268405600525112</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>135</v>
       </c>
       <c r="D7" s="2">
-        <v>-21.22</v>
+        <v>-1.42</v>
       </c>
       <c r="E7" s="2">
-        <v>19.93</v>
+        <v>29.79</v>
       </c>
       <c r="F7" s="2">
-        <v>138.41999999999999</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>-1.2199999999999989</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>-7.0000000000000284E-2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>3.4199999999999875</v>
-      </c>
-      <c r="J7">
+        <v>129.28</v>
+      </c>
+      <c r="G7" s="2">
+        <f>D7-A7</f>
+        <v>-1.42</v>
+      </c>
+      <c r="H7" s="2">
+        <f>E7-B7</f>
+        <v>-0.21000000000000085</v>
+      </c>
+      <c r="I7" s="2">
+        <f>F7-C7</f>
+        <v>-5.7199999999999989</v>
+      </c>
+      <c r="J7" s="2">
         <f>SQRT(G7*G7+H7*H7)</f>
-        <v>1.2220065466273073</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>3.6317626574433404</v>
+        <v>1.4354441821262156</v>
+      </c>
+      <c r="K7" s="2">
+        <f>SQRT(G7*G7+H7*H7+I7*I7)</f>
+        <v>5.8973638178426793</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>135</v>
       </c>
       <c r="D8" s="2">
-        <v>-10.199999999999999</v>
+        <v>-21.22</v>
       </c>
       <c r="E8" s="2">
-        <v>-5.77</v>
+        <v>19.93</v>
       </c>
       <c r="F8" s="2">
-        <v>145.22999999999999</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>-0.19999999999999929</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>-5.77</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>10.22999999999999</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>5.7734651640067938</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>11.746735716785315</v>
+        <v>138.41999999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <f>D8-A8</f>
+        <v>-1.2199999999999989</v>
+      </c>
+      <c r="H8" s="2">
+        <f>E8-B8</f>
+        <v>-7.0000000000000284E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <f>F8-C8</f>
+        <v>3.4199999999999875</v>
+      </c>
+      <c r="J8" s="2">
+        <f>SQRT(G8*G8+H8*H8)</f>
+        <v>1.2220065466273073</v>
+      </c>
+      <c r="K8" s="2">
+        <f>SQRT(G8*G8+H8*H8+I8*I8)</f>
+        <v>3.6317626574433404</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -782,39 +789,39 @@
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>-30</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>135</v>
       </c>
       <c r="D9" s="2">
-        <v>-2.86</v>
+        <v>-0.3</v>
       </c>
       <c r="E9" s="2">
-        <v>-31.64</v>
+        <v>6.24</v>
       </c>
       <c r="F9" s="2">
-        <v>150.44</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>-2.86</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>-1.6400000000000006</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>15.439999999999998</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>3.2968469785539032</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>15.788058778709939</v>
+        <v>141.13</v>
+      </c>
+      <c r="G9" s="2">
+        <f>D9-A9</f>
+        <v>-0.3</v>
+      </c>
+      <c r="H9" s="2">
+        <f>E9-B9</f>
+        <v>-3.76</v>
+      </c>
+      <c r="I9" s="2">
+        <f>F9-C9</f>
+        <v>6.1299999999999955</v>
+      </c>
+      <c r="J9" s="2">
+        <f>SQRT(G9*G9+H9*H9)</f>
+        <v>3.7719490982779709</v>
+      </c>
+      <c r="K9" s="2">
+        <f>SQRT(G9*G9+H9*H9+I9*I9)</f>
+        <v>7.1975343000224701</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -822,44 +829,44 @@
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>-10</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2">
         <v>135</v>
       </c>
       <c r="D10" s="2">
-        <v>1.1399999999999999</v>
+        <v>-0.22</v>
       </c>
       <c r="E10" s="2">
-        <v>-11.53</v>
+        <v>55.12</v>
       </c>
       <c r="F10" s="2">
-        <v>148.22</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>-1.5299999999999994</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>13.219999999999999</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>1.9080094339389411</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>13.356979448962253</v>
+        <v>131.97999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <f>D10-A10</f>
+        <v>-0.22</v>
+      </c>
+      <c r="H10" s="2">
+        <f>E10-B10</f>
+        <v>5.1199999999999974</v>
+      </c>
+      <c r="I10" s="2">
+        <f>F10-C10</f>
+        <v>-3.0200000000000102</v>
+      </c>
+      <c r="J10" s="2">
+        <f>SQRT(G10*G10+H10*H10)</f>
+        <v>5.1247243828326976</v>
+      </c>
+      <c r="K10" s="2">
+        <f>SQRT(G10*G10+H10*H10+I10*I10)</f>
+        <v>5.9483779301587791</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -868,73 +875,73 @@
         <v>135</v>
       </c>
       <c r="D11" s="2">
-        <v>0.75</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>-4.75</v>
+        <v>-5.77</v>
       </c>
       <c r="F11" s="2">
-        <v>145.6</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>-4.75</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>10.599999999999994</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>4.8088460154178359</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>11.639802403821118</v>
+        <v>145.22999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <f>D11-A11</f>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H11" s="2">
+        <f>E11-B11</f>
+        <v>-5.77</v>
+      </c>
+      <c r="I11" s="2">
+        <f>F11-C11</f>
+        <v>10.22999999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <f>SQRT(G11*G11+H11*H11)</f>
+        <v>5.7734651640067938</v>
+      </c>
+      <c r="K11" s="2">
+        <f>SQRT(G11*G11+H11*H11+I11*I11)</f>
+        <v>11.746735716785315</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
         <v>135</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.3</v>
+        <v>-29.47</v>
       </c>
       <c r="E12" s="2">
-        <v>6.24</v>
+        <v>-3.96</v>
       </c>
       <c r="F12" s="2">
-        <v>141.13</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>-0.3</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>-3.76</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>6.1299999999999955</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>3.7719490982779709</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>7.1975343000224701</v>
+        <v>142.25</v>
+      </c>
+      <c r="G12" s="2">
+        <f>D12-A12</f>
+        <v>0.53000000000000114</v>
+      </c>
+      <c r="H12" s="2">
+        <f>E12-B12</f>
+        <v>-3.96</v>
+      </c>
+      <c r="I12" s="2">
+        <f>F12-C12</f>
+        <v>7.25</v>
+      </c>
+      <c r="J12" s="2">
+        <f>SQRT(G12*G12+H12*H12)</f>
+        <v>3.9953097501945956</v>
+      </c>
+      <c r="K12" s="2">
+        <f>SQRT(G12*G12+H12*H12+I12*I12)</f>
+        <v>8.2779828460803184</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -942,239 +949,239 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
         <v>135</v>
       </c>
       <c r="D13" s="2">
-        <v>-1.42</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="2">
-        <v>29.79</v>
+        <v>-4.75</v>
       </c>
       <c r="F13" s="2">
-        <v>129.28</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>-1.42</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>-0.21000000000000085</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>-5.7199999999999989</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>1.4354441821262156</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>5.8973638178426793</v>
+        <v>145.6</v>
+      </c>
+      <c r="G13" s="2">
+        <f>D13-A13</f>
+        <v>0.75</v>
+      </c>
+      <c r="H13" s="2">
+        <f>E13-B13</f>
+        <v>-4.75</v>
+      </c>
+      <c r="I13" s="2">
+        <f>F13-C13</f>
+        <v>10.599999999999994</v>
+      </c>
+      <c r="J13" s="2">
+        <f>SQRT(G13*G13+H13*H13)</f>
+        <v>4.8088460154178359</v>
+      </c>
+      <c r="K13" s="2">
+        <f>SQRT(G13*G13+H13*H13+I13*I13)</f>
+        <v>11.639802403821118</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
         <v>135</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.22</v>
+        <v>30.76</v>
       </c>
       <c r="E14" s="2">
-        <v>55.12</v>
+        <v>-5.76</v>
       </c>
       <c r="F14" s="2">
-        <v>131.97999999999999</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>-0.22</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>5.1199999999999974</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>-3.0200000000000102</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>5.1247243828326976</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>5.9483779301587791</v>
+        <v>148.22</v>
+      </c>
+      <c r="G14" s="2">
+        <f>D14-A14</f>
+        <v>0.76000000000000156</v>
+      </c>
+      <c r="H14" s="2">
+        <f>E14-B14</f>
+        <v>-5.76</v>
+      </c>
+      <c r="I14" s="2">
+        <f>F14-C14</f>
+        <v>13.219999999999999</v>
+      </c>
+      <c r="J14" s="2">
+        <f>SQRT(G14*G14+H14*H14)</f>
+        <v>5.8099225468159217</v>
+      </c>
+      <c r="K14" s="2">
+        <f>SQRT(G14*G14+H14*H14+I14*I14)</f>
+        <v>14.440346256236378</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>135</v>
       </c>
       <c r="D15" s="2">
-        <v>11.5</v>
+        <v>21.08</v>
       </c>
       <c r="E15" s="2">
-        <v>-6.27</v>
+        <v>17.21</v>
       </c>
       <c r="F15" s="2">
-        <v>146.38</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>-6.27</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>11.379999999999995</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>6.4469295017085448</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>13.079269857297076</v>
+        <v>134.29</v>
+      </c>
+      <c r="G15" s="2">
+        <f>D15-A15</f>
+        <v>1.0799999999999983</v>
+      </c>
+      <c r="H15" s="2">
+        <f>E15-B15</f>
+        <v>-2.7899999999999991</v>
+      </c>
+      <c r="I15" s="2">
+        <f>F15-C15</f>
+        <v>-0.71000000000000796</v>
+      </c>
+      <c r="J15" s="2">
+        <f>SQRT(G15*G15+H15*H15)</f>
+        <v>2.9917386249470375</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SQRT(G15*G15+H15*H15+I15*I15)</f>
+        <v>3.0748333288163772</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="C16" s="2">
         <v>135</v>
       </c>
       <c r="D16" s="2">
-        <v>16.87</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="E16" s="2">
-        <v>-25.9</v>
+        <v>-11.53</v>
       </c>
       <c r="F16" s="2">
-        <v>148.33000000000001</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>-3.129999999999999</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>-5.8999999999999986</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>13.330000000000013</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>6.6788397195920171</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>14.909587519445342</v>
+        <v>148.22</v>
+      </c>
+      <c r="G16" s="2">
+        <f>D16-A16</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H16" s="2">
+        <f>E16-B16</f>
+        <v>-1.5299999999999994</v>
+      </c>
+      <c r="I16" s="2">
+        <f>F16-C16</f>
+        <v>13.219999999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <f>SQRT(G16*G16+H16*H16)</f>
+        <v>1.9080094339389411</v>
+      </c>
+      <c r="K16" s="2">
+        <f>SQRT(G16*G16+H16*H16+I16*I16)</f>
+        <v>13.356979448962253</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
         <v>135</v>
       </c>
       <c r="D17" s="2">
-        <v>21.08</v>
+        <v>11.5</v>
       </c>
       <c r="E17" s="2">
-        <v>17.21</v>
+        <v>-6.27</v>
       </c>
       <c r="F17" s="2">
-        <v>134.29</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>1.0799999999999983</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>-2.7899999999999991</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>-0.71000000000000796</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>2.9917386249470375</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>3.0748333288163772</v>
+        <v>146.38</v>
+      </c>
+      <c r="G17" s="2">
+        <f>D17-A17</f>
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="2">
+        <f>E17-B17</f>
+        <v>-6.27</v>
+      </c>
+      <c r="I17" s="2">
+        <f>F17-C17</f>
+        <v>11.379999999999995</v>
+      </c>
+      <c r="J17" s="2">
+        <f>SQRT(G17*G17+H17*H17)</f>
+        <v>6.4469295017085448</v>
+      </c>
+      <c r="K17" s="2">
+        <f>SQRT(G17*G17+H17*H17+I17*I17)</f>
+        <v>13.079269857297076</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>30</v>
+        <v>-40</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="C18" s="2">
         <v>135</v>
       </c>
       <c r="D18" s="2">
-        <v>30.76</v>
+        <v>-36.08</v>
       </c>
       <c r="E18" s="2">
-        <v>-5.76</v>
+        <v>-39.61</v>
       </c>
       <c r="F18" s="2">
-        <v>148.22</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0.76000000000000156</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>-5.76</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>13.219999999999999</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>5.8099225468159217</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>14.440346256236378</v>
+        <v>148.66999999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <f>D18-A18</f>
+        <v>3.9200000000000017</v>
+      </c>
+      <c r="H18" s="2">
+        <f>E18-B18</f>
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="I18" s="2">
+        <f>F18-C18</f>
+        <v>13.669999999999987</v>
+      </c>
+      <c r="J18" s="2">
+        <f>SQRT(G18*G18+H18*H18)</f>
+        <v>3.9393527387122891</v>
+      </c>
+      <c r="K18" s="2">
+        <f>SQRT(G18*G18+H18*H18+I18*I18)</f>
+        <v>14.226292559904694</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1196,28 +1203,31 @@
       <c r="F19" s="2">
         <v>129.63999999999999</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
+      <c r="G19" s="2">
+        <f>D19-A19</f>
         <v>6.6700000000000017</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
+      <c r="H19" s="2">
+        <f>E19-B19</f>
         <v>-1.1599999999999966</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
+      <c r="I19" s="2">
+        <f>F19-C19</f>
         <v>-5.3600000000000136</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
+      <c r="J19" s="2">
+        <f>SQRT(G19*G19+H19*H19)</f>
         <v>6.7701181673586772</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
+      <c r="K19" s="2">
+        <f>SQRT(G19*G19+H19*H19+I19*I19)</f>
         <v>8.6350506657459842</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K25">
+    <sortCondition ref="G1:G25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>